--- a/resource/testdata/testdata.xlsx
+++ b/resource/testdata/testdata.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="15915" windowHeight="7815" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="scenario1" sheetId="2" r:id="rId2"/>
+    <sheet name="negativelogindata" sheetId="3" r:id="rId3"/>
+    <sheet name="logindata" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="22">
   <si>
     <t>username</t>
   </si>
@@ -22,11 +25,64 @@
     <t>password</t>
   </si>
   <si>
-    <t xml:space="preserve">standard_user
-</t>
+    <t>standard_user</t>
   </si>
   <si>
     <t>secret_sauce</t>
+  </si>
+  <si>
+    <t>problem_user</t>
+  </si>
+  <si>
+    <t>performance_glitch_user</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Single Page Apps for GitHub Pages</t>
+  </si>
+  <si>
+    <t>locked_out_user</t>
+  </si>
+  <si>
+    <t>Epic sadface: Sorry, this user has been locked out.</t>
+  </si>
+  <si>
+    <t>Epic sadface: Username is required</t>
+  </si>
+  <si>
+    <t>Epic sadface: Password is required</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>Epic sadface: Username and password do not match any user in this service</t>
+  </si>
+  <si>
+    <t>only provide username</t>
+  </si>
+  <si>
+    <t>only provide pwd</t>
+  </si>
+  <si>
+    <t>provide invalid username nd pwd</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Invaliduser</t>
+  </si>
+  <si>
+    <t>invalidpassword</t>
   </si>
 </sst>
 </file>
@@ -35,9 +91,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -48,52 +104,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF484C55"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,13 +179,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -161,8 +209,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -170,30 +241,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,73 +263,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,109 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,6 +454,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -436,6 +500,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -450,17 +529,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,179 +554,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -971,15 +1027,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="22.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="18.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
@@ -991,11 +1047,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="30" spans="1:2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1003,4 +1075,342 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="32.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="38.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="56.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="30.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="37.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="57.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="25.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="15.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/resource/testdata/testdata.xlsx
+++ b/resource/testdata/testdata.xlsx
@@ -69,22 +69,22 @@
     <t>provide invalid username nd pwd</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Epic sadface: Sorry, this user has been locked out</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
     <t xml:space="preserve">                                                 </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Invaliduser</t>
   </si>
   <si>
     <t>invalidpassword</t>
-  </si>
-  <si>
-    <t>Epic sadface: Sorry, this user has been locked out</t>
   </si>
   <si>
     <t>paymentInfo</t>
@@ -130,6 +130,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -137,6 +152,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -144,22 +168,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -167,9 +199,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,11 +229,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,15 +253,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,59 +268,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,187 +283,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,9 +479,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,6 +499,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,21 +561,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -563,162 +574,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,10 +1047,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1213,6 +1213,50 @@
         <v>13</v>
       </c>
     </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1222,13 +1266,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="30.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="37.5714285714286" customWidth="1"/>
@@ -1243,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1251,7 +1295,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1262,7 +1306,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1273,7 +1317,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1281,10 +1325,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1295,7 +1339,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1303,7 +1347,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1314,57 +1358,13 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1379,7 +1379,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A1" sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
